--- a/Jogos_da_Semana_FlashScore_2025-05-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-22.xlsx
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
@@ -662,16 +662,16 @@
         <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N2" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="O2" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="P2" t="n">
         <v>1.33</v>
@@ -680,10 +680,10 @@
         <v>3.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T2" t="n">
         <v>9</v>
@@ -704,7 +704,7 @@
         <v>23</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
         <v>7</v>
@@ -769,94 +769,94 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="H3" t="n">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>6.3</v>
+        <v>6.25</v>
       </c>
       <c r="J3" t="n">
         <v>1.03</v>
       </c>
       <c r="K3" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L3" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M3" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="O3" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="P3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R3" t="n">
         <v>1.7</v>
       </c>
       <c r="S3" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="T3" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="U3" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="V3" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="X3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB3" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AD3" t="n">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="AE3" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="AI3" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -891,64 +891,64 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I4" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K4" t="n">
-        <v>11.25</v>
+        <v>17</v>
       </c>
       <c r="L4" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="M4" t="n">
         <v>4.5</v>
       </c>
       <c r="N4" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O4" t="n">
         <v>2.3</v>
       </c>
       <c r="P4" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>9</v>
+      </c>
+      <c r="V4" t="n">
         <v>8</v>
       </c>
-      <c r="U4" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="V4" t="n">
-        <v>8.5</v>
-      </c>
       <c r="W4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="X4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="n">
-        <v>11.25</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
         <v>8.5</v>
@@ -957,28 +957,28 @@
         <v>15</v>
       </c>
       <c r="AC4" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AD4" t="n">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AJ4" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H5" t="n">
         <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J5" t="n">
         <v>1.02</v>
@@ -1034,10 +1034,10 @@
         <v>5.5</v>
       </c>
       <c r="N5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P5" t="n">
         <v>1.25</v>
@@ -1088,7 +1088,7 @@
         <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
         <v>11</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
         <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J6" t="n">
         <v>1.03</v>
@@ -1150,16 +1150,16 @@
         <v>15</v>
       </c>
       <c r="L6" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O6" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P6" t="n">
         <v>1.3</v>
@@ -1168,13 +1168,13 @@
         <v>3.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U6" t="n">
         <v>9.5</v>
@@ -1222,7 +1222,7 @@
         <v>29</v>
       </c>
       <c r="AJ6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -1290,16 +1290,16 @@
         <v>3.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T7" t="n">
         <v>9.5</v>
       </c>
       <c r="U7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V7" t="n">
         <v>8.5</v>
@@ -1314,7 +1314,7 @@
         <v>21</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
         <v>8</v>
@@ -1378,36 +1378,90 @@
           <t>Guayaquil City</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.9</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T8" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="U8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="V8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>150</v>
+      </c>
       <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
+      <c r="AE8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1440,36 +1494,90 @@
           <t>Atletico Vinotinto</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="V9" t="n">
+        <v>9</v>
+      </c>
+      <c r="W9" t="n">
+        <v>15</v>
+      </c>
+      <c r="X9" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>120</v>
+      </c>
       <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
+      <c r="AE9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1506,16 +1614,16 @@
         <v>2.38</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J10" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.26</v>
@@ -1524,28 +1632,28 @@
         <v>3.6</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P10" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="R10" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="S10" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
       </c>
       <c r="U10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V10" t="n">
         <v>9.5</v>
@@ -1572,10 +1680,10 @@
         <v>51</v>
       </c>
       <c r="AD10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF10" t="n">
         <v>15</v>
@@ -1634,16 +1742,16 @@
         <v>4.75</v>
       </c>
       <c r="J11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K11" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="M11" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N11" t="n">
         <v>2</v>
@@ -1652,16 +1760,16 @@
         <v>1.8</v>
       </c>
       <c r="P11" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.57</v>
+        <v>2.72</v>
       </c>
       <c r="R11" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S11" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="T11" t="n">
         <v>6.5</v>
@@ -1768,10 +1876,10 @@
         <v>3.5</v>
       </c>
       <c r="N12" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O12" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P12" t="n">
         <v>1.39</v>
@@ -1850,7 +1958,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1869,55 +1977,55 @@
         </is>
       </c>
       <c r="G13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K13" t="n">
+        <v>11</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S13" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K13" t="n">
-        <v>13</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.2</v>
-      </c>
       <c r="T13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U13" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="V13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X13" t="n">
         <v>15</v>
@@ -1926,37 +2034,37 @@
         <v>23</v>
       </c>
       <c r="Z13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC13" t="n">
         <v>41</v>
       </c>
       <c r="AD13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE13" t="n">
         <v>12</v>
       </c>
       <c r="AF13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
         <v>41</v>
       </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -1991,13 +2099,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J14" t="n">
         <v>1.06</v>
@@ -2006,16 +2114,16 @@
         <v>10</v>
       </c>
       <c r="L14" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N14" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O14" t="n">
         <v>1.88</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.93</v>
       </c>
       <c r="P14" t="n">
         <v>1.36</v>
@@ -2024,10 +2132,10 @@
         <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T14" t="n">
         <v>7.5</v>
@@ -2054,10 +2162,10 @@
         <v>6.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD14" t="n">
         <v>201</v>
@@ -2113,31 +2221,31 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J15" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K15" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P15" t="n">
         <v>1.33</v>
@@ -2146,10 +2254,10 @@
         <v>3.25</v>
       </c>
       <c r="R15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S15" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T15" t="n">
         <v>7.5</v>
@@ -2182,7 +2290,7 @@
         <v>51</v>
       </c>
       <c r="AD15" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
@@ -2194,7 +2302,7 @@
         <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI15" t="n">
         <v>34</v>
@@ -2235,19 +2343,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J16" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L16" t="n">
         <v>1.2</v>
@@ -2268,13 +2376,13 @@
         <v>3.4</v>
       </c>
       <c r="R16" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U16" t="n">
         <v>21</v>
@@ -2479,19 +2587,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.3</v>
@@ -2500,10 +2608,10 @@
         <v>3.4</v>
       </c>
       <c r="N18" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P18" t="n">
         <v>1.4</v>
@@ -2521,28 +2629,28 @@
         <v>7.5</v>
       </c>
       <c r="U18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V18" t="n">
+        <v>9</v>
+      </c>
+      <c r="W18" t="n">
+        <v>19</v>
+      </c>
+      <c r="X18" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z18" t="n">
         <v>9.5</v>
       </c>
-      <c r="W18" t="n">
-        <v>21</v>
-      </c>
-      <c r="X18" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>9</v>
-      </c>
       <c r="AA18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC18" t="n">
         <v>51</v>
@@ -2551,7 +2659,7 @@
         <v>251</v>
       </c>
       <c r="AE18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF18" t="n">
         <v>17</v>
@@ -2560,10 +2668,10 @@
         <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ18" t="n">
         <v>34</v>
@@ -2601,76 +2709,76 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="J19" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L19" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.8</v>
       </c>
-      <c r="O19" t="n">
-        <v>2</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.7</v>
-      </c>
       <c r="S19" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U19" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="V19" t="n">
         <v>8.5</v>
       </c>
       <c r="W19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X19" t="n">
         <v>15</v>
       </c>
       <c r="Y19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA19" t="n">
         <v>7</v>
       </c>
       <c r="AB19" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AC19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD19" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE19" t="n">
         <v>12</v>
@@ -2679,16 +2787,16 @@
         <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
         <v>41</v>
       </c>
       <c r="AI19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -2738,10 +2846,10 @@
         <v>10</v>
       </c>
       <c r="L20" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N20" t="n">
         <v>2.1</v>
@@ -2844,36 +2952,96 @@
           <t>Oddevold</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K21" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T21" t="n">
+        <v>7</v>
+      </c>
+      <c r="U21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2907,19 +3075,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H22" t="n">
         <v>6.5</v>
       </c>
       <c r="I22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J22" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L22" t="n">
         <v>1.18</v>
@@ -2955,13 +3123,13 @@
         <v>9.5</v>
       </c>
       <c r="W22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X22" t="n">
         <v>11</v>
       </c>
       <c r="Y22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z22" t="n">
         <v>17</v>
@@ -2982,19 +3150,19 @@
         <v>21</v>
       </c>
       <c r="AF22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH22" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>67</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="23">
@@ -3038,10 +3206,10 @@
         <v>2.75</v>
       </c>
       <c r="J23" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L23" t="n">
         <v>1.33</v>
@@ -3086,7 +3254,7 @@
         <v>34</v>
       </c>
       <c r="Z23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA23" t="n">
         <v>6</v>
@@ -3098,7 +3266,7 @@
         <v>51</v>
       </c>
       <c r="AD23" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE23" t="n">
         <v>8.5</v>
@@ -3154,91 +3322,91 @@
         <v>2.22</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="I24" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K24" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T24" t="n">
         <v>8.25</v>
       </c>
-      <c r="L24" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M24" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O24" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="T24" t="n">
-        <v>9.75</v>
-      </c>
       <c r="U24" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="V24" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W24" t="n">
         <v>22</v>
       </c>
       <c r="X24" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z24" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="AA24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB24" t="n">
         <v>12.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD24" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE24" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AI24" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ24" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -3273,13 +3441,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
         <v>3.8</v>
       </c>
       <c r="I25" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
         <v>1.03</v>
@@ -3288,16 +3456,16 @@
         <v>15</v>
       </c>
       <c r="L25" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N25" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O25" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P25" t="n">
         <v>1.29</v>
@@ -3312,7 +3480,7 @@
         <v>2.25</v>
       </c>
       <c r="T25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U25" t="n">
         <v>10</v>
@@ -3348,7 +3516,7 @@
         <v>17</v>
       </c>
       <c r="AF25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG25" t="n">
         <v>15</v>
@@ -3360,7 +3528,7 @@
         <v>29</v>
       </c>
       <c r="AJ25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -3401,7 +3569,7 @@
         <v>3.8</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J26" t="n">
         <v>1.03</v>
@@ -3482,7 +3650,7 @@
         <v>29</v>
       </c>
       <c r="AJ26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
@@ -3574,7 +3742,7 @@
         <v>21</v>
       </c>
       <c r="Z27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA27" t="n">
         <v>7.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
@@ -722,7 +722,7 @@
         <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
         <v>1.03</v>
@@ -784,10 +784,10 @@
         <v>17</v>
       </c>
       <c r="L3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N3" t="n">
         <v>1.53</v>
@@ -844,7 +844,7 @@
         <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
         <v>19</v>
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I4" t="n">
         <v>5</v>
@@ -903,7 +903,7 @@
         <v>1.03</v>
       </c>
       <c r="K4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L4" t="n">
         <v>1.18</v>
@@ -930,13 +930,13 @@
         <v>2.1</v>
       </c>
       <c r="T4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U4" t="n">
         <v>9</v>
       </c>
       <c r="V4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="W4" t="n">
         <v>13</v>
@@ -948,7 +948,7 @@
         <v>21</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
         <v>8.5</v>
@@ -1016,16 +1016,16 @@
         <v>2.25</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J5" t="n">
         <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L5" t="n">
         <v>1.14</v>
@@ -1070,19 +1070,19 @@
         <v>19</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
@@ -1141,13 +1141,13 @@
         <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
         <v>1.03</v>
       </c>
       <c r="K6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L6" t="n">
         <v>1.18</v>
@@ -1162,10 +1162,10 @@
         <v>2.25</v>
       </c>
       <c r="P6" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R6" t="n">
         <v>1.62</v>
@@ -1192,7 +1192,7 @@
         <v>21</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
         <v>8</v>
@@ -1379,88 +1379,90 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.95</v>
+        <v>2.77</v>
       </c>
       <c r="H8" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>2.57</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="M8" t="n">
-        <v>2.25</v>
+        <v>2.47</v>
       </c>
       <c r="N8" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="P8" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="R8" t="n">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="S8" t="n">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="T8" t="n">
-        <v>5.1</v>
+        <v>7.4</v>
       </c>
       <c r="U8" t="n">
-        <v>7.6</v>
+        <v>13</v>
       </c>
       <c r="V8" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="W8" t="n">
-        <v>16.5</v>
+        <v>32</v>
       </c>
       <c r="X8" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Y8" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AC8" t="n">
-        <v>150</v>
-      </c>
-      <c r="AD8" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>900</v>
+      </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="AF8" t="n">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AI8" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -1611,13 +1613,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.38</v>
+        <v>1.83</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="J10" t="n">
         <v>1.05</v>
@@ -1626,79 +1628,79 @@
         <v>8.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M10" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="N10" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="P10" t="n">
         <v>1.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="R10" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S10" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="T10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V10" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="W10" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI10" t="n">
         <v>29</v>
       </c>
-      <c r="Z10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH10" t="n">
+      <c r="AJ10" t="n">
         <v>29</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1754,10 +1756,10 @@
         <v>3.3</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O11" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="P11" t="n">
         <v>1.42</v>
@@ -1858,91 +1860,91 @@
         <v>1.44</v>
       </c>
       <c r="H12" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K12" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="M12" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="N12" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="O12" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="P12" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="R12" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="S12" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U12" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="V12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="W12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Z12" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD12" t="n">
-        <v>451</v>
+        <v>251</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
         <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
@@ -2016,10 +2018,10 @@
         <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V13" t="n">
         <v>8.5</v>
@@ -2031,7 +2033,7 @@
         <v>15</v>
       </c>
       <c r="Y13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z13" t="n">
         <v>11</v>
@@ -2043,7 +2045,7 @@
         <v>15</v>
       </c>
       <c r="AC13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD13" t="n">
         <v>201</v>
@@ -2070,7 +2072,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CODXsKJt</t>
+          <t>WURQGsGd</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2080,119 +2082,59 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>PARAGUAY - DIVISION INTERMEDIA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>U. de Deportes</t>
+          <t>Encarnacion FC</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sporting Cristal</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K14" t="n">
-        <v>10</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="U14" t="n">
-        <v>9</v>
-      </c>
-      <c r="V14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W14" t="n">
-        <v>15</v>
-      </c>
-      <c r="X14" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>41</v>
-      </c>
+          <t>Guarani de Fram</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pGljedY9</t>
+          <t>CODXsKJt</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2202,56 +2144,56 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>U. de Deportes</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Sporting Cristal</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
         <v>4.33</v>
       </c>
       <c r="J15" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L15" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="O15" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="P15" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
         <v>1.8</v>
@@ -2269,40 +2211,40 @@
         <v>8.5</v>
       </c>
       <c r="W15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y15" t="n">
         <v>26</v>
       </c>
       <c r="Z15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC15" t="n">
         <v>51</v>
       </c>
       <c r="AD15" t="n">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG15" t="n">
         <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI15" t="n">
         <v>34</v>
@@ -2314,7 +2256,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>bqbGrJl4</t>
+          <t>pGljedY9</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2324,7 +2266,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2334,109 +2276,109 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.6</v>
+        <v>1.62</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="I16" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L16" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M16" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N16" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="O16" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="P16" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R16" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="S16" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="U16" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="V16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W16" t="n">
+        <v>12</v>
+      </c>
+      <c r="X16" t="n">
         <v>13</v>
       </c>
-      <c r="W16" t="n">
+      <c r="Y16" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>41</v>
-      </c>
-      <c r="X16" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>126</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>fBiPtcJG</t>
+          <t>bqbGrJl4</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2446,7 +2388,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2456,109 +2398,109 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H17" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="J17" t="n">
-        <v>19</v>
+        <v>1.01</v>
       </c>
       <c r="K17" t="n">
-        <v>1.03</v>
+        <v>15</v>
       </c>
       <c r="L17" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="N17" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="O17" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="P17" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="S17" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="T17" t="n">
+        <v>15</v>
+      </c>
+      <c r="U17" t="n">
+        <v>23</v>
+      </c>
+      <c r="V17" t="n">
+        <v>13</v>
+      </c>
+      <c r="W17" t="n">
+        <v>41</v>
+      </c>
+      <c r="X17" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE17" t="n">
         <v>9.5</v>
       </c>
-      <c r="U17" t="n">
-        <v>8</v>
-      </c>
-      <c r="V17" t="n">
+      <c r="AF17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG17" t="n">
         <v>9</v>
       </c>
-      <c r="W17" t="n">
-        <v>9</v>
-      </c>
-      <c r="X17" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB17" t="n">
+      <c r="AH17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>21</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Im1rx7ae</t>
+          <t>fBiPtcJG</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2568,119 +2510,119 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ross County</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K18" t="n">
+        <v>11</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S18" t="n">
         <v>2.1</v>
       </c>
-      <c r="H18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T18" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="U18" t="n">
+        <v>9</v>
+      </c>
+      <c r="V18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>11</v>
+      </c>
+      <c r="X18" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA18" t="n">
         <v>10</v>
       </c>
-      <c r="V18" t="n">
-        <v>9</v>
-      </c>
-      <c r="W18" t="n">
-        <v>19</v>
-      </c>
-      <c r="X18" t="n">
+      <c r="AB18" t="n">
         <v>17</v>
       </c>
-      <c r="Y18" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>13</v>
-      </c>
       <c r="AC18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH18" t="n">
         <v>51</v>
       </c>
-      <c r="AD18" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH18" t="n">
+      <c r="AI18" t="n">
         <v>41</v>
       </c>
-      <c r="AI18" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>K0JT2gN5</t>
+          <t>Im1rx7ae</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2690,38 +2632,38 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Ross County</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L19" t="n">
         <v>1.29</v>
@@ -2730,37 +2672,37 @@
         <v>3.5</v>
       </c>
       <c r="N19" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O19" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P19" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R19" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S19" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U19" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="V19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W19" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y19" t="n">
         <v>26</v>
@@ -2769,40 +2711,40 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC19" t="n">
         <v>51</v>
       </c>
       <c r="AD19" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG19" t="n">
         <v>12</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>15</v>
       </c>
       <c r="AH19" t="n">
         <v>41</v>
       </c>
       <c r="AI19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0zgg113b</t>
+          <t>K0JT2gN5</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2822,100 +2764,100 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I20" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="J20" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L20" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M20" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N20" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="O20" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="P20" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S20" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U20" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="V20" t="n">
         <v>8.5</v>
       </c>
       <c r="W20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X20" t="n">
         <v>15</v>
       </c>
       <c r="Y20" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Z20" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AA20" t="n">
         <v>7</v>
       </c>
       <c r="AB20" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD20" t="n">
-        <v>451</v>
+        <v>251</v>
       </c>
       <c r="AE20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ20" t="n">
         <v>41</v>
@@ -2924,7 +2866,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>KIOdcj2L</t>
+          <t>0zgg113b</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2939,114 +2881,114 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Helsingborg</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Oddevold</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.07</v>
+        <v>1.73</v>
       </c>
       <c r="H21" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="J21" t="n">
         <v>1.07</v>
       </c>
       <c r="K21" t="n">
-        <v>6.9</v>
+        <v>9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R21" t="n">
         <v>2</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.83</v>
-      </c>
       <c r="S21" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="T21" t="n">
+        <v>6</v>
+      </c>
+      <c r="U21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W21" t="n">
+        <v>13</v>
+      </c>
+      <c r="X21" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA21" t="n">
         <v>7</v>
       </c>
-      <c r="U21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="V21" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="W21" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="X21" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>6.4</v>
-      </c>
       <c r="AB21" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AC21" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AD21" t="n">
-        <v>600</v>
+        <v>451</v>
       </c>
       <c r="AE21" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="AF21" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AG21" t="n">
-        <v>11.75</v>
+        <v>15</v>
       </c>
       <c r="AH21" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AI21" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AJ21" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>j1FSiUPr</t>
+          <t>KIOdcj2L</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3066,109 +3008,109 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Helsingborg</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Umea FC</t>
+          <t>Oddevold</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.2</v>
+        <v>2.05</v>
       </c>
       <c r="H22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K22" t="n">
+        <v>10</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T22" t="n">
+        <v>7</v>
+      </c>
+      <c r="U22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>9</v>
+      </c>
+      <c r="W22" t="n">
+        <v>19</v>
+      </c>
+      <c r="X22" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA22" t="n">
         <v>6.5</v>
       </c>
-      <c r="I22" t="n">
-        <v>9</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="AB22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF22" t="n">
         <v>17</v>
       </c>
-      <c r="L22" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O22" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="U22" t="n">
-        <v>6</v>
-      </c>
-      <c r="V22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W22" t="n">
-        <v>7</v>
-      </c>
-      <c r="X22" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB22" t="n">
+      <c r="AG22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI22" t="n">
         <v>29</v>
       </c>
-      <c r="AC22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>501</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>151</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>81</v>
-      </c>
       <c r="AJ22" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>b3zlaCX8</t>
+          <t>j1FSiUPr</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3188,109 +3130,109 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sundsvall</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Brage</t>
+          <t>Umea FC</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.63</v>
+        <v>1.2</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2.75</v>
+        <v>9</v>
       </c>
       <c r="J23" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="K23" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="L23" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="M23" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N23" t="n">
-        <v>2.08</v>
+        <v>1.57</v>
       </c>
       <c r="O23" t="n">
-        <v>1.73</v>
+        <v>2.35</v>
       </c>
       <c r="P23" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="R23" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="S23" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="T23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U23" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="V23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W23" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="X23" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Y23" t="n">
         <v>34</v>
       </c>
       <c r="Z23" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AA23" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AB23" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AC23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>501</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF23" t="n">
         <v>51</v>
       </c>
-      <c r="AD23" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>13</v>
-      </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AH23" t="n">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="AI23" t="n">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="AJ23" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ID6qlnP7</t>
+          <t>b3zlaCX8</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3310,109 +3252,109 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Sundsvall</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>Brage</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.22</v>
+        <v>2.63</v>
       </c>
       <c r="H24" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="J24" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K24" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M24" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N24" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R24" t="n">
         <v>1.8</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.65</v>
-      </c>
       <c r="S24" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T24" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U24" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="V24" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="W24" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="X24" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="Y24" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Z24" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AA24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB24" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AC24" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AD24" t="n">
-        <v>350</v>
+        <v>251</v>
       </c>
       <c r="AE24" t="n">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AG24" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AI24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>23FpCzEE</t>
+          <t>ID6qlnP7</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3422,86 +3364,86 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="H25" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K25" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L25" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="M25" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N25" t="n">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
       <c r="O25" t="n">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="P25" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="R25" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="S25" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="T25" t="n">
+        <v>9</v>
+      </c>
+      <c r="U25" t="n">
+        <v>12</v>
+      </c>
+      <c r="V25" t="n">
         <v>9.5</v>
       </c>
-      <c r="U25" t="n">
-        <v>10</v>
-      </c>
-      <c r="V25" t="n">
-        <v>8.5</v>
-      </c>
       <c r="W25" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="X25" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Y25" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z25" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AA25" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB25" t="n">
         <v>13</v>
@@ -3510,31 +3452,31 @@
         <v>41</v>
       </c>
       <c r="AD25" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE25" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AF25" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AI25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>f1fP4h6l</t>
+          <t>23FpCzEE</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3554,12 +3496,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -3569,7 +3511,7 @@
         <v>3.8</v>
       </c>
       <c r="I26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
         <v>1.03</v>
@@ -3578,16 +3520,16 @@
         <v>15</v>
       </c>
       <c r="L26" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M26" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N26" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O26" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P26" t="n">
         <v>1.29</v>
@@ -3626,7 +3568,7 @@
         <v>7.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC26" t="n">
         <v>41</v>
@@ -3635,19 +3577,19 @@
         <v>126</v>
       </c>
       <c r="AE26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
         <v>41</v>
       </c>
       <c r="AI26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ26" t="n">
         <v>34</v>
@@ -3656,7 +3598,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>bV8gAErR</t>
+          <t>f1fP4h6l</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3676,22 +3618,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H27" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I27" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J27" t="n">
         <v>1.03</v>
@@ -3700,31 +3642,31 @@
         <v>15</v>
       </c>
       <c r="L27" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M27" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N27" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O27" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P27" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R27" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S27" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U27" t="n">
         <v>10</v>
@@ -3733,10 +3675,10 @@
         <v>8.5</v>
       </c>
       <c r="W27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y27" t="n">
         <v>21</v>
@@ -3754,16 +3696,16 @@
         <v>41</v>
       </c>
       <c r="AD27" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH27" t="n">
         <v>41</v>
@@ -3772,13 +3714,13 @@
         <v>29</v>
       </c>
       <c r="AJ27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>UgNtgscJ</t>
+          <t>bV8gAErR</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3788,59 +3730,119 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Al Sharjah</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K28" t="n">
+        <v>15</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>10</v>
+      </c>
+      <c r="V28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W28" t="n">
+        <v>17</v>
+      </c>
+      <c r="X28" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6wTA8amB</t>
+          <t>UgNtgscJ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3850,22 +3852,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Carabobo</t>
+          <t>Khorfakkan</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Dep. Tachira</t>
+          <t>Al Sharjah</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -3902,7 +3904,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CjbB6wIN</t>
+          <t>6wTA8amB</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3912,7 +3914,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3922,12 +3924,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Puerto Cabello</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Metropolitanos</t>
+          <t>Dep. Tachira</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -3961,6 +3963,68 @@
       <c r="AI30" t="inlineStr"/>
       <c r="AJ30" t="inlineStr"/>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CjbB6wIN</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Puerto Cabello</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Metropolitanos</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2025-05-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-22.xlsx
@@ -1478,7 +1478,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1613,49 +1613,49 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T10" t="n">
         <v>8.5</v>
       </c>
-      <c r="L10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>9</v>
-      </c>
-      <c r="U10" t="n">
-        <v>10</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
@@ -1676,7 +1676,7 @@
         <v>7.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC10" t="n">
         <v>41</v>
@@ -1685,10 +1685,10 @@
         <v>151</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG10" t="n">
         <v>13</v>
@@ -1697,10 +1697,10 @@
         <v>41</v>
       </c>
       <c r="AI10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -2529,13 +2529,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="H18" t="n">
         <v>4.75</v>
       </c>
       <c r="I18" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
         <v>1.02</v>
@@ -2550,10 +2550,10 @@
         <v>5</v>
       </c>
       <c r="N18" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O18" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="P18" t="n">
         <v>1.25</v>
@@ -2568,13 +2568,13 @@
         <v>2.1</v>
       </c>
       <c r="T18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U18" t="n">
         <v>9</v>
       </c>
       <c r="V18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W18" t="n">
         <v>11</v>
@@ -2589,7 +2589,7 @@
         <v>19</v>
       </c>
       <c r="AA18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB18" t="n">
         <v>17</v>
@@ -2601,10 +2601,10 @@
         <v>151</v>
       </c>
       <c r="AE18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG18" t="n">
         <v>17</v>
@@ -2616,7 +2616,7 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">

--- a/Jogos_da_Semana_FlashScore_2025-05-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-22.xlsx
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
         <v>1.03</v>
@@ -1296,7 +1296,7 @@
         <v>2.25</v>
       </c>
       <c r="T7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U7" t="n">
         <v>11</v>
@@ -1326,7 +1326,7 @@
         <v>41</v>
       </c>
       <c r="AD7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1613,13 +1613,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
         <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J10" t="n">
         <v>1.04</v>
@@ -1643,19 +1643,19 @@
         <v>1.32</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="T10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
@@ -1676,7 +1676,7 @@
         <v>7.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
         <v>41</v>
@@ -1685,10 +1685,10 @@
         <v>151</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
         <v>13</v>
@@ -1697,7 +1697,7 @@
         <v>41</v>
       </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="n">
         <v>34</v>
@@ -1735,7 +1735,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H11" t="n">
         <v>3.6</v>
@@ -1774,10 +1774,10 @@
         <v>1.82</v>
       </c>
       <c r="T11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V11" t="n">
         <v>8.5</v>
@@ -1786,13 +1786,13 @@
         <v>13</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA11" t="n">
         <v>7</v>
@@ -1804,10 +1804,10 @@
         <v>51</v>
       </c>
       <c r="AD11" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
         <v>23</v>
@@ -2000,10 +2000,10 @@
         <v>3.5</v>
       </c>
       <c r="N13" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O13" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P13" t="n">
         <v>1.36</v>
@@ -2288,28 +2288,28 @@
         <v>1.62</v>
       </c>
       <c r="H16" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
         <v>4.5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K16" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L16" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N16" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O16" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
         <v>1.33</v>
@@ -2318,10 +2318,10 @@
         <v>3.25</v>
       </c>
       <c r="R16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S16" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T16" t="n">
         <v>7.5</v>
@@ -2342,7 +2342,7 @@
         <v>26</v>
       </c>
       <c r="Z16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA16" t="n">
         <v>8</v>
@@ -2354,7 +2354,7 @@
         <v>51</v>
       </c>
       <c r="AD16" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -2369,7 +2369,7 @@
         <v>51</v>
       </c>
       <c r="AI16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ16" t="n">
         <v>41</v>
@@ -2407,13 +2407,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H17" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="J17" t="n">
         <v>1.01</v>
@@ -2428,16 +2428,16 @@
         <v>4.33</v>
       </c>
       <c r="N17" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P17" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R17" t="n">
         <v>1.62</v>
@@ -2449,7 +2449,7 @@
         <v>15</v>
       </c>
       <c r="U17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V17" t="n">
         <v>13</v>
@@ -2458,16 +2458,16 @@
         <v>41</v>
       </c>
       <c r="X17" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y17" t="n">
         <v>29</v>
       </c>
-      <c r="Y17" t="n">
-        <v>34</v>
-      </c>
       <c r="Z17" t="n">
         <v>15</v>
       </c>
       <c r="AA17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB17" t="n">
         <v>13</v>
@@ -2476,22 +2476,22 @@
         <v>41</v>
       </c>
       <c r="AD17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE17" t="n">
         <v>9.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG17" t="n">
         <v>9</v>
       </c>
       <c r="AH17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
         <v>21</v>
@@ -2529,19 +2529,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="H18" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.02</v>
+        <v>21</v>
       </c>
       <c r="K18" t="n">
-        <v>11</v>
+        <v>1.03</v>
       </c>
       <c r="L18" t="n">
         <v>1.14</v>
@@ -2550,10 +2550,10 @@
         <v>5</v>
       </c>
       <c r="N18" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O18" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="P18" t="n">
         <v>1.25</v>
@@ -2571,10 +2571,10 @@
         <v>9.5</v>
       </c>
       <c r="U18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W18" t="n">
         <v>11</v>
@@ -2586,10 +2586,10 @@
         <v>21</v>
       </c>
       <c r="Z18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB18" t="n">
         <v>17</v>
@@ -2601,13 +2601,13 @@
         <v>151</v>
       </c>
       <c r="AE18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG18" t="n">
         <v>19</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>17</v>
       </c>
       <c r="AH18" t="n">
         <v>51</v>
@@ -2616,7 +2616,7 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
@@ -2660,10 +2660,10 @@
         <v>3.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L19" t="n">
         <v>1.29</v>
@@ -2773,13 +2773,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H20" t="n">
         <v>3.7</v>
       </c>
       <c r="I20" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
         <v>1.05</v>
@@ -2812,7 +2812,7 @@
         <v>1.95</v>
       </c>
       <c r="T20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U20" t="n">
         <v>8.5</v>
@@ -2845,7 +2845,7 @@
         <v>251</v>
       </c>
       <c r="AE20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF20" t="n">
         <v>21</v>
@@ -2898,43 +2898,43 @@
         <v>1.73</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I21" t="n">
         <v>4.75</v>
       </c>
       <c r="J21" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N21" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="O21" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="P21" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S21" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U21" t="n">
         <v>7.5</v>
@@ -2952,22 +2952,22 @@
         <v>29</v>
       </c>
       <c r="Z21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA21" t="n">
         <v>7</v>
       </c>
       <c r="AB21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD21" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AE21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF21" t="n">
         <v>23</v>
@@ -3517,7 +3517,7 @@
         <v>1.03</v>
       </c>
       <c r="K26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L26" t="n">
         <v>1.17</v>
@@ -3526,10 +3526,10 @@
         <v>5</v>
       </c>
       <c r="N26" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O26" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P26" t="n">
         <v>1.29</v>
@@ -3538,16 +3538,16 @@
         <v>3.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S26" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V26" t="n">
         <v>8.5</v>
@@ -3562,7 +3562,7 @@
         <v>21</v>
       </c>
       <c r="Z26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA26" t="n">
         <v>7.5</v>
@@ -3577,22 +3577,22 @@
         <v>126</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
         <v>41</v>
       </c>
       <c r="AI26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -3749,13 +3749,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="H28" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="J28" t="n">
         <v>1.03</v>
@@ -3764,10 +3764,10 @@
         <v>15</v>
       </c>
       <c r="L28" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M28" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N28" t="n">
         <v>1.65</v>
@@ -3788,19 +3788,19 @@
         <v>2.25</v>
       </c>
       <c r="T28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W28" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="X28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y28" t="n">
         <v>21</v>
@@ -3809,34 +3809,34 @@
         <v>15</v>
       </c>
       <c r="AA28" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC28" t="n">
         <v>41</v>
       </c>
       <c r="AD28" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE28" t="n">
         <v>13</v>
       </c>
       <c r="AF28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="29">

--- a/Jogos_da_Semana_FlashScore_2025-05-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-22.xlsx
@@ -659,7 +659,7 @@
         <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" t="n">
         <v>1.25</v>
@@ -722,7 +722,7 @@
         <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
@@ -1613,13 +1613,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I10" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
         <v>1.04</v>
@@ -1634,10 +1634,10 @@
         <v>4.25</v>
       </c>
       <c r="N10" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O10" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P10" t="n">
         <v>1.32</v>
@@ -1652,19 +1652,19 @@
         <v>2.12</v>
       </c>
       <c r="T10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U10" t="n">
         <v>9</v>
-      </c>
-      <c r="U10" t="n">
-        <v>9.5</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
       </c>
       <c r="W10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
         <v>21</v>
@@ -1673,10 +1673,10 @@
         <v>15</v>
       </c>
       <c r="AA10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC10" t="n">
         <v>41</v>
@@ -1685,19 +1685,19 @@
         <v>151</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
         <v>34</v>
@@ -1878,10 +1878,10 @@
         <v>3.9</v>
       </c>
       <c r="N12" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P12" t="n">
         <v>1.34</v>
@@ -2000,10 +2000,10 @@
         <v>3.5</v>
       </c>
       <c r="N13" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O13" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P13" t="n">
         <v>1.36</v>
@@ -3261,19 +3261,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H24" t="n">
         <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L24" t="n">
         <v>1.33</v>
@@ -3300,10 +3300,10 @@
         <v>1.95</v>
       </c>
       <c r="T24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V24" t="n">
         <v>10</v>
@@ -3312,7 +3312,7 @@
         <v>26</v>
       </c>
       <c r="X24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y24" t="n">
         <v>34</v>
@@ -3339,10 +3339,10 @@
         <v>13</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
         <v>23</v>
@@ -3505,13 +3505,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H26" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J26" t="n">
         <v>1.03</v>
@@ -3553,7 +3553,7 @@
         <v>8.5</v>
       </c>
       <c r="W26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X26" t="n">
         <v>13</v>
@@ -3571,10 +3571,10 @@
         <v>12</v>
       </c>
       <c r="AC26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD26" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE26" t="n">
         <v>15</v>
@@ -3589,7 +3589,7 @@
         <v>41</v>
       </c>
       <c r="AI26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ26" t="n">
         <v>29</v>
@@ -3870,36 +3870,96 @@
           <t>Al Sharjah</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K29" t="n">
+        <v>9</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="U29" t="n">
+        <v>35</v>
+      </c>
+      <c r="V29" t="n">
+        <v>16</v>
+      </c>
+      <c r="W29" t="n">
+        <v>90</v>
+      </c>
+      <c r="X29" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">

--- a/Jogos_da_Semana_FlashScore_2025-05-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AJ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
         <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -686,7 +686,7 @@
         <v>2.1</v>
       </c>
       <c r="T2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U2" t="n">
         <v>11</v>
@@ -1150,16 +1150,16 @@
         <v>17</v>
       </c>
       <c r="L6" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O6" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="P6" t="n">
         <v>1.29</v>
@@ -1168,16 +1168,16 @@
         <v>3.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V6" t="n">
         <v>8.5</v>
@@ -1195,7 +1195,7 @@
         <v>17</v>
       </c>
       <c r="AA6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB6" t="n">
         <v>15</v>
@@ -1207,10 +1207,10 @@
         <v>151</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1272,16 +1272,16 @@
         <v>17</v>
       </c>
       <c r="L7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M7" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N7" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O7" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P7" t="n">
         <v>1.29</v>
@@ -1290,10 +1290,10 @@
         <v>3.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -1302,7 +1302,7 @@
         <v>11</v>
       </c>
       <c r="V7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W7" t="n">
         <v>17</v>
@@ -1329,7 +1329,7 @@
         <v>126</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>21</v>
@@ -1341,10 +1341,10 @@
         <v>41</v>
       </c>
       <c r="AI7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
         <v>2.77</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.57</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -1399,13 +1399,13 @@
         <v>2.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P8" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="R8" t="n">
         <v>1.88</v>
@@ -1414,19 +1414,19 @@
         <v>1.72</v>
       </c>
       <c r="T8" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="U8" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="V8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="W8" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="X8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
         <v>40</v>
@@ -1447,19 +1447,19 @@
         <v>900</v>
       </c>
       <c r="AE8" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AF8" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AI8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ8" t="n">
         <v>40</v>
@@ -1613,13 +1613,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J10" t="n">
         <v>1.04</v>
@@ -1634,10 +1634,10 @@
         <v>4.25</v>
       </c>
       <c r="N10" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O10" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P10" t="n">
         <v>1.32</v>
@@ -1652,7 +1652,7 @@
         <v>2.12</v>
       </c>
       <c r="T10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U10" t="n">
         <v>9</v>
@@ -1664,7 +1664,7 @@
         <v>13</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
         <v>21</v>
@@ -1756,10 +1756,10 @@
         <v>3.3</v>
       </c>
       <c r="N11" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O11" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P11" t="n">
         <v>1.42</v>
@@ -1878,10 +1878,10 @@
         <v>3.9</v>
       </c>
       <c r="N12" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P12" t="n">
         <v>1.34</v>
@@ -2072,7 +2072,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>WURQGsGd</t>
+          <t>CODXsKJt</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2082,59 +2082,119 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PARAGUAY - DIVISION INTERMEDIA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Encarnacion FC</t>
+          <t>U. de Deportes</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Guarani de Fram</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
+          <t>Sporting Cristal</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K14" t="n">
+        <v>10</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>15</v>
+      </c>
+      <c r="X14" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CODXsKJt</t>
+          <t>pGljedY9</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2144,110 +2204,110 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>U. de Deportes</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Sporting Cristal</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K15" t="n">
+        <v>12</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N15" t="n">
         <v>1.8</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K15" t="n">
-        <v>10</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.93</v>
-      </c>
       <c r="O15" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S15" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T15" t="n">
         <v>7.5</v>
       </c>
       <c r="U15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V15" t="n">
         <v>8.5</v>
       </c>
       <c r="W15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="X15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
         <v>26</v>
       </c>
       <c r="Z15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA15" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AB15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC15" t="n">
         <v>51</v>
       </c>
       <c r="AD15" t="n">
-        <v>251</v>
+        <v>600</v>
       </c>
       <c r="AE15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
         <v>15</v>
       </c>
       <c r="AH15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI15" t="n">
         <v>41</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>34</v>
       </c>
       <c r="AJ15" t="n">
         <v>41</v>
@@ -2256,7 +2316,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pGljedY9</t>
+          <t>bqbGrJl4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2266,7 +2326,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2276,109 +2336,109 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K16" t="n">
+        <v>15</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R16" t="n">
         <v>1.62</v>
       </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K16" t="n">
-        <v>12</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.83</v>
-      </c>
       <c r="S16" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="T16" t="n">
+        <v>15</v>
+      </c>
+      <c r="U16" t="n">
+        <v>21</v>
+      </c>
+      <c r="V16" t="n">
+        <v>13</v>
+      </c>
+      <c r="W16" t="n">
+        <v>41</v>
+      </c>
+      <c r="X16" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA16" t="n">
         <v>7.5</v>
       </c>
-      <c r="U16" t="n">
-        <v>8</v>
-      </c>
-      <c r="V16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W16" t="n">
-        <v>12</v>
-      </c>
-      <c r="X16" t="n">
+      <c r="AB16" t="n">
         <v>13</v>
       </c>
-      <c r="Y16" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB16" t="n">
+      <c r="AC16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH16" t="n">
         <v>17</v>
       </c>
-      <c r="AC16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>600</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>51</v>
-      </c>
       <c r="AI16" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bqbGrJl4</t>
+          <t>fBiPtcJG</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2388,7 +2448,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2398,109 +2458,109 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.6</v>
+        <v>1.42</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>1.9</v>
+        <v>5.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="K17" t="n">
-        <v>15</v>
+        <v>1.03</v>
       </c>
       <c r="L17" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="M17" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="O17" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="P17" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="U17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>11</v>
+      </c>
+      <c r="X17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y17" t="n">
         <v>21</v>
       </c>
-      <c r="V17" t="n">
-        <v>13</v>
-      </c>
-      <c r="W17" t="n">
-        <v>41</v>
-      </c>
-      <c r="X17" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>29</v>
-      </c>
       <c r="Z17" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AA17" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AB17" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AC17" t="n">
         <v>41</v>
       </c>
       <c r="AD17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE17" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AJ17" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>fBiPtcJG</t>
+          <t>Im1rx7ae</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2510,119 +2570,119 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Ross County</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.42</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>21</v>
+        <v>1.05</v>
       </c>
       <c r="K18" t="n">
-        <v>1.03</v>
+        <v>11</v>
       </c>
       <c r="L18" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N18" t="n">
-        <v>1.44</v>
+        <v>1.98</v>
       </c>
       <c r="O18" t="n">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="P18" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S18" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T18" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="U18" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="V18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W18" t="n">
+        <v>19</v>
+      </c>
+      <c r="X18" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE18" t="n">
         <v>11</v>
       </c>
-      <c r="X18" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB18" t="n">
+      <c r="AF18" t="n">
         <v>17</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AG18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH18" t="n">
         <v>41</v>
       </c>
-      <c r="AD18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF18" t="n">
+      <c r="AI18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>34</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Im1rx7ae</t>
+          <t>K0JT2gN5</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2632,32 +2692,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ross County</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I19" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="J19" t="n">
         <v>1.05</v>
@@ -2672,79 +2732,79 @@
         <v>3.5</v>
       </c>
       <c r="N19" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O19" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P19" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W19" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="X19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y19" t="n">
         <v>26</v>
       </c>
       <c r="Z19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB19" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AC19" t="n">
         <v>51</v>
       </c>
       <c r="AD19" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AE19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>41</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>K0JT2gN5</t>
+          <t>0zgg113b</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2764,100 +2824,100 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="H20" t="n">
         <v>3.7</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="J20" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K20" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N20" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="O20" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="P20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S20" t="n">
         <v>1.8</v>
       </c>
-      <c r="S20" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U20" t="n">
         <v>7.5</v>
-      </c>
-      <c r="U20" t="n">
-        <v>8.5</v>
       </c>
       <c r="V20" t="n">
         <v>8.5</v>
       </c>
       <c r="W20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X20" t="n">
         <v>15</v>
       </c>
       <c r="Y20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z20" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA20" t="n">
         <v>7</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC20" t="n">
         <v>51</v>
       </c>
       <c r="AD20" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AE20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI20" t="n">
         <v>41</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>34</v>
       </c>
       <c r="AJ20" t="n">
         <v>41</v>
@@ -2866,7 +2926,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0zgg113b</t>
+          <t>KIOdcj2L</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2881,45 +2941,45 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Helsingborg</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Oddevold</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="J21" t="n">
         <v>1.06</v>
       </c>
       <c r="K21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N21" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O21" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P21" t="n">
         <v>1.4</v>
@@ -2928,25 +2988,25 @@
         <v>2.75</v>
       </c>
       <c r="R21" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S21" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U21" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="V21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W21" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="X21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y21" t="n">
         <v>29</v>
@@ -2955,31 +3015,31 @@
         <v>9.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC21" t="n">
         <v>51</v>
       </c>
       <c r="AD21" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG21" t="n">
         <v>12</v>
       </c>
-      <c r="AF21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>15</v>
-      </c>
       <c r="AH21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI21" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AJ21" t="n">
         <v>41</v>
@@ -2988,7 +3048,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>KIOdcj2L</t>
+          <t>j1FSiUPr</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3008,109 +3068,109 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Helsingborg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Oddevold</t>
+          <t>Umea FC</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="H22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K22" t="n">
+        <v>17</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q22" t="n">
         <v>3.5</v>
       </c>
-      <c r="I22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K22" t="n">
-        <v>10</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.75</v>
-      </c>
       <c r="R22" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="S22" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="T22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U22" t="n">
+        <v>6</v>
+      </c>
+      <c r="V22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W22" t="n">
         <v>7</v>
       </c>
-      <c r="U22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="V22" t="n">
-        <v>9</v>
-      </c>
-      <c r="W22" t="n">
-        <v>19</v>
-      </c>
       <c r="X22" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z22" t="n">
         <v>17</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AA22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB22" t="n">
         <v>29</v>
       </c>
-      <c r="Z22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>15</v>
-      </c>
       <c r="AC22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>501</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF22" t="n">
         <v>51</v>
       </c>
-      <c r="AD22" t="n">
-        <v>301</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>17</v>
-      </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AH22" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="AI22" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AJ22" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>j1FSiUPr</t>
+          <t>b3zlaCX8</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3130,109 +3190,109 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Sundsvall</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Umea FC</t>
+          <t>Brage</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H23" t="n">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="J23" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K23" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L23" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="M23" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="N23" t="n">
-        <v>1.57</v>
+        <v>2.08</v>
       </c>
       <c r="O23" t="n">
-        <v>2.35</v>
+        <v>1.73</v>
       </c>
       <c r="P23" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="R23" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="S23" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="T23" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="U23" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="V23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W23" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="X23" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Y23" t="n">
         <v>34</v>
       </c>
       <c r="Z23" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AA23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF23" t="n">
         <v>13</v>
       </c>
-      <c r="AB23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>501</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>51</v>
-      </c>
       <c r="AG23" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AH23" t="n">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="AI23" t="n">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="AJ23" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>b3zlaCX8</t>
+          <t>ID6qlnP7</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3252,109 +3312,109 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sundsvall</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Brage</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K24" t="n">
+        <v>11</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T24" t="n">
+        <v>9</v>
+      </c>
+      <c r="U24" t="n">
+        <v>12</v>
+      </c>
+      <c r="V24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W24" t="n">
+        <v>23</v>
+      </c>
+      <c r="X24" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE24" t="n">
         <v>10</v>
       </c>
-      <c r="L24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="U24" t="n">
-        <v>13</v>
-      </c>
-      <c r="V24" t="n">
-        <v>10</v>
-      </c>
-      <c r="W24" t="n">
-        <v>26</v>
-      </c>
-      <c r="X24" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AF24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI24" t="n">
         <v>23</v>
       </c>
       <c r="AJ24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ID6qlnP7</t>
+          <t>23FpCzEE</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3364,110 +3424,110 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="J25" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K25" t="n">
+        <v>17</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T25" t="n">
+        <v>10</v>
+      </c>
+      <c r="U25" t="n">
         <v>11</v>
       </c>
-      <c r="L25" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>3</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T25" t="n">
-        <v>9</v>
-      </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W25" t="n">
+        <v>17</v>
+      </c>
+      <c r="X25" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB25" t="n">
         <v>12</v>
       </c>
-      <c r="V25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W25" t="n">
+      <c r="AC25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF25" t="n">
         <v>23</v>
       </c>
-      <c r="X25" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y25" t="n">
+      <c r="AG25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI25" t="n">
         <v>26</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>23</v>
       </c>
       <c r="AJ25" t="n">
         <v>29</v>
@@ -3476,7 +3536,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>23FpCzEE</t>
+          <t>f1fP4h6l</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3496,58 +3556,58 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H26" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I26" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J26" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K26" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L26" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="O26" t="n">
-        <v>2.35</v>
+        <v>2.08</v>
       </c>
       <c r="P26" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R26" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="S26" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="T26" t="n">
+        <v>9</v>
+      </c>
+      <c r="U26" t="n">
         <v>10</v>
-      </c>
-      <c r="U26" t="n">
-        <v>11</v>
       </c>
       <c r="V26" t="n">
         <v>8.5</v>
@@ -3556,31 +3616,31 @@
         <v>17</v>
       </c>
       <c r="X26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y26" t="n">
         <v>21</v>
       </c>
       <c r="Z26" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD26" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AE26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG26" t="n">
         <v>13</v>
@@ -3589,16 +3649,16 @@
         <v>41</v>
       </c>
       <c r="AI26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>f1fP4h6l</t>
+          <t>bV8gAErR</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3618,22 +3678,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H27" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="J27" t="n">
         <v>1.03</v>
@@ -3660,25 +3720,25 @@
         <v>3.5</v>
       </c>
       <c r="R27" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S27" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T27" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="U27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W27" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="X27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y27" t="n">
         <v>21</v>
@@ -3687,40 +3747,40 @@
         <v>15</v>
       </c>
       <c r="AA27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD27" t="n">
         <v>126</v>
       </c>
       <c r="AE27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI27" t="n">
         <v>23</v>
       </c>
-      <c r="AG27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ27" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>bV8gAErR</t>
+          <t>UgNtgscJ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3730,119 +3790,119 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Khorfakkan</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Al Sharjah</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.1</v>
+        <v>4.7</v>
       </c>
       <c r="H28" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="I28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K28" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q28" t="n">
         <v>3.1</v>
       </c>
-      <c r="J28" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K28" t="n">
-        <v>15</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="N28" t="n">
+      <c r="R28" t="n">
         <v>1.65</v>
       </c>
-      <c r="O28" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.57</v>
-      </c>
       <c r="S28" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="T28" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="U28" t="n">
+        <v>30</v>
+      </c>
+      <c r="V28" t="n">
+        <v>15</v>
+      </c>
+      <c r="W28" t="n">
+        <v>80</v>
+      </c>
+      <c r="X28" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI28" t="n">
         <v>12</v>
       </c>
-      <c r="V28" t="n">
-        <v>9</v>
-      </c>
-      <c r="W28" t="n">
+      <c r="AJ28" t="n">
         <v>21</v>
-      </c>
-      <c r="X28" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>126</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>UgNtgscJ</t>
+          <t>6wTA8amB</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3852,119 +3912,59 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Al Sharjah</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K29" t="n">
-        <v>9</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M29" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O29" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T29" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="U29" t="n">
-        <v>35</v>
-      </c>
-      <c r="V29" t="n">
-        <v>16</v>
-      </c>
-      <c r="W29" t="n">
-        <v>90</v>
-      </c>
-      <c r="X29" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>21</v>
-      </c>
+          <t>Dep. Tachira</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6wTA8amB</t>
+          <t>CjbB6wIN</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3984,12 +3984,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Carabobo</t>
+          <t>Puerto Cabello</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Dep. Tachira</t>
+          <t>Metropolitanos</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -4023,68 +4023,6 @@
       <c r="AI30" t="inlineStr"/>
       <c r="AJ30" t="inlineStr"/>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>CjbB6wIN</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>22/05/2025</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Puerto Cabello</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Metropolitanos</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2025-05-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-22.xlsx
@@ -802,16 +802,16 @@
         <v>3.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V3" t="n">
         <v>8.5</v>
@@ -829,7 +829,7 @@
         <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB3" t="n">
         <v>15</v>
@@ -844,7 +844,7 @@
         <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG3" t="n">
         <v>19</v>
@@ -1735,13 +1735,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
         <v>1.06</v>
@@ -1786,7 +1786,7 @@
         <v>13</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
         <v>26</v>
@@ -1810,7 +1810,7 @@
         <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG11" t="n">
         <v>15</v>
@@ -1878,10 +1878,10 @@
         <v>3.9</v>
       </c>
       <c r="N12" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O12" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P12" t="n">
         <v>1.34</v>
@@ -2012,10 +2012,10 @@
         <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T13" t="n">
         <v>7.5</v>
@@ -2048,7 +2048,7 @@
         <v>51</v>
       </c>
       <c r="AD13" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE13" t="n">
         <v>12</v>
@@ -2063,10 +2063,10 @@
         <v>41</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
@@ -2598,10 +2598,10 @@
         <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L18" t="n">
         <v>1.29</v>
@@ -2622,10 +2622,10 @@
         <v>2.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T18" t="n">
         <v>7.5</v>
@@ -2652,19 +2652,19 @@
         <v>6.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC18" t="n">
         <v>51</v>
       </c>
       <c r="AD18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE18" t="n">
         <v>11</v>
       </c>
       <c r="AF18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG18" t="n">
         <v>12</v>
@@ -2967,7 +2967,7 @@
         <v>1.06</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.33</v>
@@ -3321,13 +3321,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="J24" t="n">
         <v>1.05</v>
@@ -3354,25 +3354,25 @@
         <v>3</v>
       </c>
       <c r="R24" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y24" t="n">
         <v>26</v>
@@ -3393,19 +3393,19 @@
         <v>151</v>
       </c>
       <c r="AE24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG24" t="n">
         <v>10</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>11</v>
       </c>
       <c r="AH24" t="n">
         <v>29</v>
       </c>
       <c r="AI24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ24" t="n">
         <v>29</v>
@@ -3708,10 +3708,10 @@
         <v>4.5</v>
       </c>
       <c r="N27" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O27" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P27" t="n">
         <v>1.29</v>
@@ -3930,36 +3930,90 @@
           <t>Dep. Tachira</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="W29" t="n">
+        <v>30</v>
+      </c>
+      <c r="X29" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>110</v>
+      </c>
       <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
+      <c r="AE29" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3992,36 +4046,92 @@
           <t>Metropolitanos</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.45</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U30" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="V30" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W30" t="n">
+        <v>21</v>
+      </c>
+      <c r="X30" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-05-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-22.xlsx
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J5" t="n">
         <v>1.02</v>
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="H6" t="n">
         <v>4.1</v>
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -1396,16 +1396,16 @@
         <v>2.47</v>
       </c>
       <c r="N8" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="O8" t="n">
         <v>1.53</v>
       </c>
       <c r="P8" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="R8" t="n">
         <v>1.88</v>
@@ -1417,25 +1417,25 @@
         <v>6.8</v>
       </c>
       <c r="U8" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="V8" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W8" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB8" t="n">
         <v>16</v>
@@ -1447,19 +1447,19 @@
         <v>900</v>
       </c>
       <c r="AE8" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH8" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ8" t="n">
         <v>40</v>
@@ -1735,13 +1735,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H11" t="n">
         <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J11" t="n">
         <v>1.06</v>
@@ -1777,7 +1777,7 @@
         <v>7</v>
       </c>
       <c r="U11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V11" t="n">
         <v>8.5</v>
@@ -1786,7 +1786,7 @@
         <v>13</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
         <v>26</v>
@@ -1813,7 +1813,7 @@
         <v>26</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
         <v>51</v>
@@ -2000,10 +2000,10 @@
         <v>3.5</v>
       </c>
       <c r="N13" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O13" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P13" t="n">
         <v>1.36</v>
@@ -2223,13 +2223,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J15" t="n">
         <v>1.02</v>
@@ -2298,7 +2298,7 @@
         <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
         <v>15</v>
@@ -2967,7 +2967,7 @@
         <v>1.06</v>
       </c>
       <c r="K21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L21" t="n">
         <v>1.33</v>
@@ -3565,13 +3565,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H26" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
         <v>1.04</v>
@@ -3592,34 +3592,34 @@
         <v>2.08</v>
       </c>
       <c r="P26" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R26" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S26" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V26" t="n">
         <v>8.5</v>
       </c>
       <c r="W26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X26" t="n">
         <v>15</v>
       </c>
       <c r="Y26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z26" t="n">
         <v>13</v>
@@ -3687,13 +3687,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I27" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J27" t="n">
         <v>1.03</v>
@@ -3726,16 +3726,16 @@
         <v>2.38</v>
       </c>
       <c r="T27" t="n">
+        <v>10</v>
+      </c>
+      <c r="U27" t="n">
         <v>11</v>
-      </c>
-      <c r="U27" t="n">
-        <v>12</v>
       </c>
       <c r="V27" t="n">
         <v>9</v>
       </c>
       <c r="W27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X27" t="n">
         <v>15</v>
@@ -3747,7 +3747,7 @@
         <v>15</v>
       </c>
       <c r="AA27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB27" t="n">
         <v>12</v>
@@ -3759,16 +3759,16 @@
         <v>126</v>
       </c>
       <c r="AE27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG27" t="n">
         <v>12</v>
       </c>
       <c r="AH27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI27" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-22.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J3" t="n">
         <v>1.03</v>
@@ -784,10 +784,10 @@
         <v>17</v>
       </c>
       <c r="L3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N3" t="n">
         <v>1.53</v>
@@ -802,13 +802,13 @@
         <v>3.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U3" t="n">
         <v>8.5</v>
@@ -829,7 +829,7 @@
         <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB3" t="n">
         <v>15</v>
@@ -844,7 +844,7 @@
         <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
         <v>19</v>
@@ -951,7 +951,7 @@
         <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB4" t="n">
         <v>15</v>
@@ -963,10 +963,10 @@
         <v>151</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="J5" t="n">
         <v>1.02</v>
@@ -1028,16 +1028,16 @@
         <v>21</v>
       </c>
       <c r="L5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O5" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P5" t="n">
         <v>1.25</v>
@@ -1061,7 +1061,7 @@
         <v>9.5</v>
       </c>
       <c r="W5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X5" t="n">
         <v>15</v>
@@ -1094,10 +1094,10 @@
         <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
         <v>21</v>
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
         <v>4.1</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J7" t="n">
         <v>1.03</v>
@@ -1341,7 +1341,7 @@
         <v>41</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ7" t="n">
         <v>26</v>
@@ -1613,13 +1613,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I10" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
         <v>1.04</v>
@@ -1634,10 +1634,10 @@
         <v>4.25</v>
       </c>
       <c r="N10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O10" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P10" t="n">
         <v>1.32</v>
@@ -1652,10 +1652,10 @@
         <v>2.12</v>
       </c>
       <c r="T10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
@@ -1664,13 +1664,13 @@
         <v>13</v>
       </c>
       <c r="X10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z10" t="n">
         <v>13</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>15</v>
       </c>
       <c r="AA10" t="n">
         <v>8</v>
@@ -1682,7 +1682,7 @@
         <v>41</v>
       </c>
       <c r="AD10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
@@ -1697,10 +1697,10 @@
         <v>51</v>
       </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -1735,13 +1735,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J11" t="n">
         <v>1.06</v>
@@ -1756,10 +1756,10 @@
         <v>3.3</v>
       </c>
       <c r="N11" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O11" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P11" t="n">
         <v>1.42</v>
@@ -1783,7 +1783,7 @@
         <v>8.5</v>
       </c>
       <c r="W11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X11" t="n">
         <v>13</v>
@@ -1857,13 +1857,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="H12" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J12" t="n">
         <v>1.04</v>
@@ -1896,7 +1896,7 @@
         <v>1.8</v>
       </c>
       <c r="T12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U12" t="n">
         <v>7.5</v>
@@ -1908,19 +1908,19 @@
         <v>10</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
         <v>23</v>
       </c>
       <c r="Z12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="n">
         <v>51</v>
@@ -1929,7 +1929,7 @@
         <v>251</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
         <v>34</v>
@@ -2110,10 +2110,10 @@
         <v>4.33</v>
       </c>
       <c r="J14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L14" t="n">
         <v>1.29</v>
@@ -2122,10 +2122,10 @@
         <v>3.5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P14" t="n">
         <v>1.36</v>
@@ -2256,10 +2256,10 @@
         <v>3.25</v>
       </c>
       <c r="R15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S15" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T15" t="n">
         <v>7.5</v>
@@ -2271,7 +2271,7 @@
         <v>8.5</v>
       </c>
       <c r="W15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X15" t="n">
         <v>13</v>
@@ -2307,7 +2307,7 @@
         <v>51</v>
       </c>
       <c r="AI15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ15" t="n">
         <v>41</v>
@@ -2598,10 +2598,10 @@
         <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L18" t="n">
         <v>1.29</v>
@@ -2732,10 +2732,10 @@
         <v>3.5</v>
       </c>
       <c r="N19" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P19" t="n">
         <v>1.36</v>
@@ -3086,10 +3086,10 @@
         <v>9</v>
       </c>
       <c r="J22" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L22" t="n">
         <v>1.18</v>
@@ -3199,19 +3199,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
         <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="J23" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L23" t="n">
         <v>1.33</v>
@@ -3238,22 +3238,22 @@
         <v>1.95</v>
       </c>
       <c r="T23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V23" t="n">
         <v>10</v>
       </c>
       <c r="W23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z23" t="n">
         <v>9</v>
@@ -3271,16 +3271,16 @@
         <v>251</v>
       </c>
       <c r="AE23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI23" t="n">
         <v>23</v>
@@ -3342,10 +3342,10 @@
         <v>3.75</v>
       </c>
       <c r="N24" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P24" t="n">
         <v>1.36</v>
@@ -3458,10 +3458,10 @@
         <v>17</v>
       </c>
       <c r="L25" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N25" t="n">
         <v>1.53</v>
@@ -3699,19 +3699,19 @@
         <v>1.03</v>
       </c>
       <c r="K27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L27" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M27" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N27" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O27" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P27" t="n">
         <v>1.29</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-22.xlsx
@@ -659,7 +659,7 @@
         <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" t="n">
         <v>1.25</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
         <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
         <v>1.03</v>
@@ -966,7 +966,7 @@
         <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J5" t="n">
         <v>1.02</v>
@@ -1040,10 +1040,10 @@
         <v>2.7</v>
       </c>
       <c r="P5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R5" t="n">
         <v>1.44</v>
@@ -1079,7 +1079,7 @@
         <v>12</v>
       </c>
       <c r="AC5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD5" t="n">
         <v>81</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>1.03</v>
@@ -1168,16 +1168,16 @@
         <v>3.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T6" t="n">
         <v>9.5</v>
       </c>
       <c r="U6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V6" t="n">
         <v>8.5</v>
@@ -1186,7 +1186,7 @@
         <v>15</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
         <v>21</v>
@@ -1613,13 +1613,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
         <v>1.04</v>
@@ -1664,7 +1664,7 @@
         <v>13</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
         <v>23</v>
@@ -1673,7 +1673,7 @@
         <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB10" t="n">
         <v>15</v>
@@ -1688,7 +1688,7 @@
         <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG10" t="n">
         <v>15</v>
@@ -1697,10 +1697,10 @@
         <v>51</v>
       </c>
       <c r="AI10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1735,13 +1735,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H11" t="n">
         <v>3.75</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J11" t="n">
         <v>1.06</v>
@@ -1756,10 +1756,10 @@
         <v>3.3</v>
       </c>
       <c r="N11" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P11" t="n">
         <v>1.42</v>
@@ -2110,10 +2110,10 @@
         <v>4.33</v>
       </c>
       <c r="J14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L14" t="n">
         <v>1.29</v>
@@ -2161,7 +2161,7 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB14" t="n">
         <v>15</v>
@@ -2173,7 +2173,7 @@
         <v>251</v>
       </c>
       <c r="AE14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
         <v>21</v>
@@ -2223,13 +2223,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J15" t="n">
         <v>1.02</v>
@@ -2265,7 +2265,7 @@
         <v>7.5</v>
       </c>
       <c r="U15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V15" t="n">
         <v>8.5</v>
@@ -2354,10 +2354,10 @@
         <v>1.9</v>
       </c>
       <c r="J16" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L16" t="n">
         <v>1.2</v>
@@ -2470,13 +2470,13 @@
         <v>1.42</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I17" t="n">
         <v>5.5</v>
       </c>
       <c r="J17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K17" t="n">
         <v>1.03</v>
@@ -2488,10 +2488,10 @@
         <v>5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O17" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="P17" t="n">
         <v>1.25</v>
@@ -2506,13 +2506,13 @@
         <v>2.1</v>
       </c>
       <c r="T17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U17" t="n">
         <v>8.5</v>
       </c>
       <c r="V17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W17" t="n">
         <v>11</v>
@@ -2524,10 +2524,10 @@
         <v>21</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB17" t="n">
         <v>17</v>
@@ -2548,7 +2548,7 @@
         <v>19</v>
       </c>
       <c r="AH17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI17" t="n">
         <v>41</v>
@@ -2589,31 +2589,31 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L18" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P18" t="n">
         <v>1.4</v>
@@ -2631,7 +2631,7 @@
         <v>7.5</v>
       </c>
       <c r="U18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V18" t="n">
         <v>9</v>
@@ -2667,7 +2667,7 @@
         <v>19</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
         <v>41</v>
@@ -2842,10 +2842,10 @@
         <v>4.75</v>
       </c>
       <c r="J20" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K20" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L20" t="n">
         <v>1.3</v>
@@ -2854,10 +2854,10 @@
         <v>3.4</v>
       </c>
       <c r="N20" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P20" t="n">
         <v>1.4</v>
@@ -3208,10 +3208,10 @@
         <v>2.9</v>
       </c>
       <c r="J23" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L23" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-22.xlsx
@@ -1613,10 +1613,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
         <v>4.5</v>
@@ -1652,10 +1652,10 @@
         <v>2.12</v>
       </c>
       <c r="T10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
@@ -1667,7 +1667,7 @@
         <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z10" t="n">
         <v>13</v>
@@ -1682,13 +1682,13 @@
         <v>41</v>
       </c>
       <c r="AD10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG10" t="n">
         <v>15</v>
@@ -1863,7 +1863,7 @@
         <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
         <v>1.04</v>
@@ -1905,7 +1905,7 @@
         <v>8.5</v>
       </c>
       <c r="W12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X12" t="n">
         <v>12</v>
@@ -1982,16 +1982,16 @@
         <v>1.9</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L13" t="n">
         <v>1.29</v>
@@ -2036,7 +2036,7 @@
         <v>26</v>
       </c>
       <c r="Z13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA13" t="n">
         <v>6.5</v>
@@ -2051,7 +2051,7 @@
         <v>251</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF13" t="n">
         <v>21</v>
@@ -2110,10 +2110,10 @@
         <v>4.33</v>
       </c>
       <c r="J14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L14" t="n">
         <v>1.29</v>
@@ -2232,10 +2232,10 @@
         <v>4.33</v>
       </c>
       <c r="J15" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K15" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L15" t="n">
         <v>1.25</v>
@@ -2476,10 +2476,10 @@
         <v>5.5</v>
       </c>
       <c r="J17" t="n">
-        <v>19</v>
+        <v>1.02</v>
       </c>
       <c r="K17" t="n">
-        <v>1.03</v>
+        <v>11</v>
       </c>
       <c r="L17" t="n">
         <v>1.14</v>
@@ -2711,13 +2711,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H19" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I19" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J19" t="n">
         <v>1.05</v>
@@ -2762,7 +2762,7 @@
         <v>13</v>
       </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
         <v>26</v>
@@ -2771,7 +2771,7 @@
         <v>11</v>
       </c>
       <c r="AA19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB19" t="n">
         <v>17</v>
@@ -2795,7 +2795,7 @@
         <v>51</v>
       </c>
       <c r="AI19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ19" t="n">
         <v>41</v>
@@ -2842,10 +2842,10 @@
         <v>4.75</v>
       </c>
       <c r="J20" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>1.3</v>
@@ -2854,10 +2854,10 @@
         <v>3.4</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O20" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P20" t="n">
         <v>1.4</v>
@@ -2961,25 +2961,25 @@
         <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J21" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M21" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P21" t="n">
         <v>1.4</v>
@@ -2988,10 +2988,10 @@
         <v>2.75</v>
       </c>
       <c r="R21" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S21" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T21" t="n">
         <v>7</v>
@@ -3012,7 +3012,7 @@
         <v>29</v>
       </c>
       <c r="Z21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA21" t="n">
         <v>6.5</v>
@@ -3027,7 +3027,7 @@
         <v>301</v>
       </c>
       <c r="AE21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF21" t="n">
         <v>17</v>
@@ -3042,7 +3042,7 @@
         <v>29</v>
       </c>
       <c r="AJ21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -3214,16 +3214,16 @@
         <v>10</v>
       </c>
       <c r="L23" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M23" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N23" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O23" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P23" t="n">
         <v>1.44</v>
@@ -3687,13 +3687,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H27" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I27" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J27" t="n">
         <v>1.03</v>
@@ -3720,16 +3720,16 @@
         <v>3.5</v>
       </c>
       <c r="R27" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S27" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V27" t="n">
         <v>9</v>
@@ -3744,7 +3744,7 @@
         <v>21</v>
       </c>
       <c r="Z27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA27" t="n">
         <v>7.5</v>
@@ -3756,19 +3756,19 @@
         <v>34</v>
       </c>
       <c r="AD27" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG27" t="n">
         <v>12</v>
       </c>
       <c r="AH27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI27" t="n">
         <v>23</v>
@@ -3931,88 +3931,88 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="H29" t="n">
         <v>2.72</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M29" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="N29" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="O29" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P29" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="R29" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="S29" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T29" t="n">
         <v>6.2</v>
       </c>
       <c r="U29" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="V29" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="W29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y29" t="n">
         <v>45</v>
       </c>
       <c r="Z29" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AA29" t="n">
         <v>5.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC29" t="n">
         <v>110</v>
       </c>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AF29" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH29" t="n">
         <v>40</v>
       </c>
       <c r="AI29" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ29" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
@@ -4047,27 +4047,27 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M30" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="N30" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="O30" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P30" t="n">
         <v>1.42</v>
@@ -4079,34 +4079,34 @@
         <v>1.8</v>
       </c>
       <c r="S30" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="T30" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="U30" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="V30" t="n">
         <v>8.75</v>
       </c>
       <c r="W30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y30" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z30" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AA30" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB30" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC30" t="n">
         <v>75</v>
@@ -4115,10 +4115,10 @@
         <v>700</v>
       </c>
       <c r="AE30" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF30" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG30" t="n">
         <v>11.75</v>
@@ -4130,7 +4130,7 @@
         <v>32</v>
       </c>
       <c r="AJ30" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-22.xlsx
@@ -1497,85 +1497,87 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="M9" t="n">
-        <v>2.45</v>
+        <v>2.57</v>
       </c>
       <c r="N9" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="O9" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="P9" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="R9" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="S9" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T9" t="n">
         <v>5.5</v>
       </c>
       <c r="U9" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="V9" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="W9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y9" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AC9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH9" t="n">
         <v>120</v>
       </c>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>60</v>
-      </c>
       <c r="AI9" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="AJ9" t="n">
         <v>65</v>
@@ -1735,13 +1737,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J11" t="n">
         <v>1.06</v>
@@ -1807,10 +1809,10 @@
         <v>301</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG11" t="n">
         <v>17</v>
@@ -1863,7 +1865,7 @@
         <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J12" t="n">
         <v>1.04</v>
@@ -1878,10 +1880,10 @@
         <v>3.9</v>
       </c>
       <c r="N12" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O12" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P12" t="n">
         <v>1.34</v>
@@ -1899,13 +1901,13 @@
         <v>7.5</v>
       </c>
       <c r="U12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V12" t="n">
         <v>8.5</v>
       </c>
       <c r="W12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X12" t="n">
         <v>12</v>
@@ -1920,7 +1922,7 @@
         <v>8.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="n">
         <v>51</v>
@@ -3199,25 +3201,25 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J23" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L23" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M23" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N23" t="n">
         <v>2.05</v>
@@ -3226,10 +3228,10 @@
         <v>1.75</v>
       </c>
       <c r="P23" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R23" t="n">
         <v>1.8</v>
@@ -3271,10 +3273,10 @@
         <v>251</v>
       </c>
       <c r="AE23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG23" t="n">
         <v>11</v>
@@ -3687,19 +3689,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
         <v>3.7</v>
       </c>
       <c r="I27" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J27" t="n">
         <v>1.03</v>
       </c>
       <c r="K27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L27" t="n">
         <v>1.17</v>
@@ -3720,10 +3722,10 @@
         <v>3.5</v>
       </c>
       <c r="R27" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S27" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T27" t="n">
         <v>11</v>
@@ -3759,7 +3761,7 @@
         <v>101</v>
       </c>
       <c r="AE27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF27" t="n">
         <v>19</v>
@@ -3931,13 +3933,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="H29" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="I29" t="n">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -3966,25 +3968,25 @@
         <v>1.65</v>
       </c>
       <c r="T29" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="U29" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="V29" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="W29" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X29" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y29" t="n">
         <v>45</v>
       </c>
       <c r="Z29" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AA29" t="n">
         <v>5.5</v>
@@ -3993,26 +3995,26 @@
         <v>16.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AF29" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AH29" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI29" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ29" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
